--- a/models/calculation engines/economic_overlay/outputs/depth_splits_sedimentary_bauxite/depth_buckets-percent_tonnage_per_depth_range.xlsx
+++ b/models/calculation engines/economic_overlay/outputs/depth_splits_sedimentary_bauxite/depth_buckets-percent_tonnage_per_depth_range.xlsx
@@ -3784,1250 +3784,1250 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333334</v>
       </c>
       <c r="B105" t="n">
-        <v>0.10416666665</v>
+        <v>0.08333333332000002</v>
       </c>
       <c r="C105" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333333999998</v>
       </c>
       <c r="D105" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572</v>
       </c>
       <c r="E105" t="n">
-        <v>0.13392857125</v>
+        <v>0.107142857</v>
       </c>
       <c r="F105" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572000001</v>
       </c>
       <c r="G105" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="H105" t="n">
-        <v>0.1339285714999998</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="I105" t="n">
-        <v>0.01785714275000017</v>
+        <v>0.107142857</v>
       </c>
       <c r="J105" t="n">
-        <v>0</v>
+        <v>0.1071428572000001</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333334</v>
       </c>
       <c r="B106" t="n">
-        <v>0.10416666665</v>
+        <v>0.08333333332000002</v>
       </c>
       <c r="C106" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333333999998</v>
       </c>
       <c r="D106" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572</v>
       </c>
       <c r="E106" t="n">
-        <v>0.13392857125</v>
+        <v>0.107142857</v>
       </c>
       <c r="F106" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572000001</v>
       </c>
       <c r="G106" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="H106" t="n">
-        <v>0.1339285714999998</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="I106" t="n">
-        <v>0.01785714275000017</v>
+        <v>0.107142857</v>
       </c>
       <c r="J106" t="n">
-        <v>0</v>
+        <v>0.1071428572000001</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333334</v>
       </c>
       <c r="B107" t="n">
-        <v>0.10416666665</v>
+        <v>0.08333333332000002</v>
       </c>
       <c r="C107" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333333999998</v>
       </c>
       <c r="D107" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572</v>
       </c>
       <c r="E107" t="n">
-        <v>0.13392857125</v>
+        <v>0.107142857</v>
       </c>
       <c r="F107" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572000001</v>
       </c>
       <c r="G107" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="H107" t="n">
-        <v>0.1339285714999998</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="I107" t="n">
-        <v>0.01785714275000017</v>
+        <v>0.107142857</v>
       </c>
       <c r="J107" t="n">
-        <v>0</v>
+        <v>0.1071428572000001</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333334</v>
       </c>
       <c r="B108" t="n">
-        <v>0.10416666665</v>
+        <v>0.08333333332000002</v>
       </c>
       <c r="C108" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333333999998</v>
       </c>
       <c r="D108" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572</v>
       </c>
       <c r="E108" t="n">
-        <v>0.13392857125</v>
+        <v>0.107142857</v>
       </c>
       <c r="F108" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572000001</v>
       </c>
       <c r="G108" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="H108" t="n">
-        <v>0.1339285714999998</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="I108" t="n">
-        <v>0.01785714275000017</v>
+        <v>0.107142857</v>
       </c>
       <c r="J108" t="n">
-        <v>0</v>
+        <v>0.1071428572000001</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333334</v>
       </c>
       <c r="B109" t="n">
-        <v>0.10416666665</v>
+        <v>0.08333333332000002</v>
       </c>
       <c r="C109" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333333999998</v>
       </c>
       <c r="D109" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572</v>
       </c>
       <c r="E109" t="n">
-        <v>0.13392857125</v>
+        <v>0.107142857</v>
       </c>
       <c r="F109" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572000001</v>
       </c>
       <c r="G109" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="H109" t="n">
-        <v>0.1339285714999998</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="I109" t="n">
-        <v>0.01785714275000017</v>
+        <v>0.107142857</v>
       </c>
       <c r="J109" t="n">
-        <v>0</v>
+        <v>0.1071428572000001</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333334</v>
       </c>
       <c r="B110" t="n">
-        <v>0.10416666665</v>
+        <v>0.08333333332000002</v>
       </c>
       <c r="C110" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333333999998</v>
       </c>
       <c r="D110" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572</v>
       </c>
       <c r="E110" t="n">
-        <v>0.13392857125</v>
+        <v>0.107142857</v>
       </c>
       <c r="F110" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572000001</v>
       </c>
       <c r="G110" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="H110" t="n">
-        <v>0.1339285714999998</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="I110" t="n">
-        <v>0.01785714275000017</v>
+        <v>0.107142857</v>
       </c>
       <c r="J110" t="n">
-        <v>0</v>
+        <v>0.1071428572000001</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333334</v>
       </c>
       <c r="B111" t="n">
-        <v>0.10416666665</v>
+        <v>0.08333333332000002</v>
       </c>
       <c r="C111" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333333999998</v>
       </c>
       <c r="D111" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572</v>
       </c>
       <c r="E111" t="n">
-        <v>0.13392857125</v>
+        <v>0.107142857</v>
       </c>
       <c r="F111" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572000001</v>
       </c>
       <c r="G111" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="H111" t="n">
-        <v>0.1339285714999998</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="I111" t="n">
-        <v>0.01785714275000017</v>
+        <v>0.107142857</v>
       </c>
       <c r="J111" t="n">
-        <v>0</v>
+        <v>0.1071428572000001</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333334</v>
       </c>
       <c r="B112" t="n">
-        <v>0.10416666665</v>
+        <v>0.08333333332000002</v>
       </c>
       <c r="C112" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333333999998</v>
       </c>
       <c r="D112" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572</v>
       </c>
       <c r="E112" t="n">
-        <v>0.13392857125</v>
+        <v>0.107142857</v>
       </c>
       <c r="F112" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572000001</v>
       </c>
       <c r="G112" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="H112" t="n">
-        <v>0.1339285714999998</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="I112" t="n">
-        <v>0.01785714275000017</v>
+        <v>0.107142857</v>
       </c>
       <c r="J112" t="n">
-        <v>0</v>
+        <v>0.1071428572000001</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333334</v>
       </c>
       <c r="B113" t="n">
-        <v>0.10416666665</v>
+        <v>0.08333333332000002</v>
       </c>
       <c r="C113" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333333999998</v>
       </c>
       <c r="D113" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572</v>
       </c>
       <c r="E113" t="n">
-        <v>0.13392857125</v>
+        <v>0.107142857</v>
       </c>
       <c r="F113" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572000001</v>
       </c>
       <c r="G113" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="H113" t="n">
-        <v>0.1339285714999998</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="I113" t="n">
-        <v>0.01785714275000017</v>
+        <v>0.107142857</v>
       </c>
       <c r="J113" t="n">
-        <v>0</v>
+        <v>0.1071428572000001</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333334</v>
       </c>
       <c r="B114" t="n">
-        <v>0.10416666665</v>
+        <v>0.08333333332000002</v>
       </c>
       <c r="C114" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333333999998</v>
       </c>
       <c r="D114" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572</v>
       </c>
       <c r="E114" t="n">
-        <v>0.13392857125</v>
+        <v>0.107142857</v>
       </c>
       <c r="F114" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572000001</v>
       </c>
       <c r="G114" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="H114" t="n">
-        <v>0.1339285714999998</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="I114" t="n">
-        <v>0.01785714275000017</v>
+        <v>0.107142857</v>
       </c>
       <c r="J114" t="n">
-        <v>0</v>
+        <v>0.1071428572000001</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333334</v>
       </c>
       <c r="B115" t="n">
-        <v>0.10416666665</v>
+        <v>0.08333333332000002</v>
       </c>
       <c r="C115" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333333999998</v>
       </c>
       <c r="D115" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572</v>
       </c>
       <c r="E115" t="n">
-        <v>0.13392857125</v>
+        <v>0.107142857</v>
       </c>
       <c r="F115" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572000001</v>
       </c>
       <c r="G115" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="H115" t="n">
-        <v>0.1339285714999998</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="I115" t="n">
-        <v>0.01785714275000017</v>
+        <v>0.107142857</v>
       </c>
       <c r="J115" t="n">
-        <v>0</v>
+        <v>0.1071428572000001</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333334</v>
       </c>
       <c r="B116" t="n">
-        <v>0.10416666665</v>
+        <v>0.08333333332000002</v>
       </c>
       <c r="C116" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333333999998</v>
       </c>
       <c r="D116" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572</v>
       </c>
       <c r="E116" t="n">
-        <v>0.13392857125</v>
+        <v>0.107142857</v>
       </c>
       <c r="F116" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572000001</v>
       </c>
       <c r="G116" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="H116" t="n">
-        <v>0.1339285714999998</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="I116" t="n">
-        <v>0.01785714275000017</v>
+        <v>0.107142857</v>
       </c>
       <c r="J116" t="n">
-        <v>0</v>
+        <v>0.1071428572000001</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333334</v>
       </c>
       <c r="B117" t="n">
-        <v>0.10416666665</v>
+        <v>0.08333333332000002</v>
       </c>
       <c r="C117" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333333999998</v>
       </c>
       <c r="D117" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572</v>
       </c>
       <c r="E117" t="n">
-        <v>0.13392857125</v>
+        <v>0.107142857</v>
       </c>
       <c r="F117" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572000001</v>
       </c>
       <c r="G117" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="H117" t="n">
-        <v>0.1339285714999998</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="I117" t="n">
-        <v>0.01785714275000017</v>
+        <v>0.107142857</v>
       </c>
       <c r="J117" t="n">
-        <v>0</v>
+        <v>0.1071428572000001</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333334</v>
       </c>
       <c r="B118" t="n">
-        <v>0.10416666665</v>
+        <v>0.08333333332000002</v>
       </c>
       <c r="C118" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333333999998</v>
       </c>
       <c r="D118" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572</v>
       </c>
       <c r="E118" t="n">
-        <v>0.13392857125</v>
+        <v>0.107142857</v>
       </c>
       <c r="F118" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572000001</v>
       </c>
       <c r="G118" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="H118" t="n">
-        <v>0.1339285714999998</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="I118" t="n">
-        <v>0.01785714275000017</v>
+        <v>0.107142857</v>
       </c>
       <c r="J118" t="n">
-        <v>0</v>
+        <v>0.1071428572000001</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333334</v>
       </c>
       <c r="B119" t="n">
-        <v>0.10416666665</v>
+        <v>0.08333333332000002</v>
       </c>
       <c r="C119" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333333999998</v>
       </c>
       <c r="D119" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572</v>
       </c>
       <c r="E119" t="n">
-        <v>0.13392857125</v>
+        <v>0.107142857</v>
       </c>
       <c r="F119" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572000001</v>
       </c>
       <c r="G119" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="H119" t="n">
-        <v>0.1339285714999998</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="I119" t="n">
-        <v>0.01785714275000017</v>
+        <v>0.107142857</v>
       </c>
       <c r="J119" t="n">
-        <v>0</v>
+        <v>0.1071428572000001</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333334</v>
       </c>
       <c r="B120" t="n">
-        <v>0.10416666665</v>
+        <v>0.08333333332000002</v>
       </c>
       <c r="C120" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333333999998</v>
       </c>
       <c r="D120" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572</v>
       </c>
       <c r="E120" t="n">
-        <v>0.13392857125</v>
+        <v>0.107142857</v>
       </c>
       <c r="F120" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572000001</v>
       </c>
       <c r="G120" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="H120" t="n">
-        <v>0.1339285714999998</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="I120" t="n">
-        <v>0.01785714275000017</v>
+        <v>0.107142857</v>
       </c>
       <c r="J120" t="n">
-        <v>0</v>
+        <v>0.1071428572000001</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333334</v>
       </c>
       <c r="B121" t="n">
-        <v>0.10416666665</v>
+        <v>0.08333333332000002</v>
       </c>
       <c r="C121" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333333999998</v>
       </c>
       <c r="D121" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572</v>
       </c>
       <c r="E121" t="n">
-        <v>0.13392857125</v>
+        <v>0.107142857</v>
       </c>
       <c r="F121" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572000001</v>
       </c>
       <c r="G121" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="H121" t="n">
-        <v>0.1339285714999998</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="I121" t="n">
-        <v>0.01785714275000017</v>
+        <v>0.107142857</v>
       </c>
       <c r="J121" t="n">
-        <v>0</v>
+        <v>0.1071428572000001</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333334</v>
       </c>
       <c r="B122" t="n">
-        <v>0.10416666665</v>
+        <v>0.08333333332000002</v>
       </c>
       <c r="C122" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333333999998</v>
       </c>
       <c r="D122" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572</v>
       </c>
       <c r="E122" t="n">
-        <v>0.13392857125</v>
+        <v>0.107142857</v>
       </c>
       <c r="F122" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572000001</v>
       </c>
       <c r="G122" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="H122" t="n">
-        <v>0.1339285714999998</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="I122" t="n">
-        <v>0.01785714275000017</v>
+        <v>0.107142857</v>
       </c>
       <c r="J122" t="n">
-        <v>0</v>
+        <v>0.1071428572000001</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333334</v>
       </c>
       <c r="B123" t="n">
-        <v>0.10416666665</v>
+        <v>0.08333333332000002</v>
       </c>
       <c r="C123" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333333999998</v>
       </c>
       <c r="D123" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572</v>
       </c>
       <c r="E123" t="n">
-        <v>0.13392857125</v>
+        <v>0.107142857</v>
       </c>
       <c r="F123" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572000001</v>
       </c>
       <c r="G123" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="H123" t="n">
-        <v>0.1339285714999998</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="I123" t="n">
-        <v>0.01785714275000017</v>
+        <v>0.107142857</v>
       </c>
       <c r="J123" t="n">
-        <v>0</v>
+        <v>0.1071428572000001</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333334</v>
       </c>
       <c r="B124" t="n">
-        <v>0.10416666665</v>
+        <v>0.08333333332000002</v>
       </c>
       <c r="C124" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333333999998</v>
       </c>
       <c r="D124" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572</v>
       </c>
       <c r="E124" t="n">
-        <v>0.13392857125</v>
+        <v>0.107142857</v>
       </c>
       <c r="F124" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572000001</v>
       </c>
       <c r="G124" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="H124" t="n">
-        <v>0.1339285714999998</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="I124" t="n">
-        <v>0.01785714275000017</v>
+        <v>0.107142857</v>
       </c>
       <c r="J124" t="n">
-        <v>0</v>
+        <v>0.1071428572000001</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333334</v>
       </c>
       <c r="B125" t="n">
-        <v>0.10416666665</v>
+        <v>0.08333333332000002</v>
       </c>
       <c r="C125" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333333999998</v>
       </c>
       <c r="D125" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572</v>
       </c>
       <c r="E125" t="n">
-        <v>0.13392857125</v>
+        <v>0.107142857</v>
       </c>
       <c r="F125" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572000001</v>
       </c>
       <c r="G125" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="H125" t="n">
-        <v>0.1339285714999998</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="I125" t="n">
-        <v>0.01785714275000017</v>
+        <v>0.107142857</v>
       </c>
       <c r="J125" t="n">
-        <v>0</v>
+        <v>0.1071428572000001</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333334</v>
       </c>
       <c r="B126" t="n">
-        <v>0.10416666665</v>
+        <v>0.08333333332000002</v>
       </c>
       <c r="C126" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333333999998</v>
       </c>
       <c r="D126" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572</v>
       </c>
       <c r="E126" t="n">
-        <v>0.13392857125</v>
+        <v>0.107142857</v>
       </c>
       <c r="F126" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572000001</v>
       </c>
       <c r="G126" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="H126" t="n">
-        <v>0.1339285714999998</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="I126" t="n">
-        <v>0.01785714275000017</v>
+        <v>0.107142857</v>
       </c>
       <c r="J126" t="n">
-        <v>0</v>
+        <v>0.1071428572000001</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333334</v>
       </c>
       <c r="B127" t="n">
-        <v>0.10416666665</v>
+        <v>0.08333333332000002</v>
       </c>
       <c r="C127" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333333999998</v>
       </c>
       <c r="D127" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572</v>
       </c>
       <c r="E127" t="n">
-        <v>0.13392857125</v>
+        <v>0.107142857</v>
       </c>
       <c r="F127" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572000001</v>
       </c>
       <c r="G127" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="H127" t="n">
-        <v>0.1339285714999998</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="I127" t="n">
-        <v>0.01785714275000017</v>
+        <v>0.107142857</v>
       </c>
       <c r="J127" t="n">
-        <v>0</v>
+        <v>0.1071428572000001</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333334</v>
       </c>
       <c r="B128" t="n">
-        <v>0.10416666665</v>
+        <v>0.08333333332000002</v>
       </c>
       <c r="C128" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333333999998</v>
       </c>
       <c r="D128" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572</v>
       </c>
       <c r="E128" t="n">
-        <v>0.13392857125</v>
+        <v>0.107142857</v>
       </c>
       <c r="F128" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572000001</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="H128" t="n">
-        <v>0.1339285714999998</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="I128" t="n">
-        <v>0.01785714275000017</v>
+        <v>0.107142857</v>
       </c>
       <c r="J128" t="n">
-        <v>0</v>
+        <v>0.1071428572000001</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333334</v>
       </c>
       <c r="B129" t="n">
-        <v>0.10416666665</v>
+        <v>0.08333333332000002</v>
       </c>
       <c r="C129" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333333999998</v>
       </c>
       <c r="D129" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572</v>
       </c>
       <c r="E129" t="n">
-        <v>0.13392857125</v>
+        <v>0.107142857</v>
       </c>
       <c r="F129" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572000001</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="H129" t="n">
-        <v>0.1339285714999998</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="I129" t="n">
-        <v>0.01785714275000017</v>
+        <v>0.107142857</v>
       </c>
       <c r="J129" t="n">
-        <v>0</v>
+        <v>0.1071428572000001</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333334</v>
       </c>
       <c r="B130" t="n">
-        <v>0.10416666665</v>
+        <v>0.08333333332000002</v>
       </c>
       <c r="C130" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333333999998</v>
       </c>
       <c r="D130" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572</v>
       </c>
       <c r="E130" t="n">
-        <v>0.13392857125</v>
+        <v>0.107142857</v>
       </c>
       <c r="F130" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572000001</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="H130" t="n">
-        <v>0.1339285714999998</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="I130" t="n">
-        <v>0.01785714275000017</v>
+        <v>0.107142857</v>
       </c>
       <c r="J130" t="n">
-        <v>0</v>
+        <v>0.1071428572000001</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333334</v>
       </c>
       <c r="B131" t="n">
-        <v>0.10416666665</v>
+        <v>0.08333333332000002</v>
       </c>
       <c r="C131" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333333999998</v>
       </c>
       <c r="D131" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572</v>
       </c>
       <c r="E131" t="n">
-        <v>0.13392857125</v>
+        <v>0.107142857</v>
       </c>
       <c r="F131" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572000001</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="H131" t="n">
-        <v>0.1339285714999998</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="I131" t="n">
-        <v>0.01785714275000017</v>
+        <v>0.107142857</v>
       </c>
       <c r="J131" t="n">
-        <v>0</v>
+        <v>0.1071428572000001</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333334</v>
       </c>
       <c r="B132" t="n">
-        <v>0.10416666665</v>
+        <v>0.08333333332000002</v>
       </c>
       <c r="C132" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333333999998</v>
       </c>
       <c r="D132" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572</v>
       </c>
       <c r="E132" t="n">
-        <v>0.13392857125</v>
+        <v>0.107142857</v>
       </c>
       <c r="F132" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572000001</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="H132" t="n">
-        <v>0.1339285714999998</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="I132" t="n">
-        <v>0.01785714275000017</v>
+        <v>0.107142857</v>
       </c>
       <c r="J132" t="n">
-        <v>0</v>
+        <v>0.1071428572000001</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333334</v>
       </c>
       <c r="B133" t="n">
-        <v>0.10416666665</v>
+        <v>0.08333333332000002</v>
       </c>
       <c r="C133" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333333999998</v>
       </c>
       <c r="D133" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572</v>
       </c>
       <c r="E133" t="n">
-        <v>0.13392857125</v>
+        <v>0.107142857</v>
       </c>
       <c r="F133" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572000001</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="H133" t="n">
-        <v>0.1339285714999998</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="I133" t="n">
-        <v>0.01785714275000017</v>
+        <v>0.107142857</v>
       </c>
       <c r="J133" t="n">
-        <v>0</v>
+        <v>0.1071428572000001</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333334</v>
       </c>
       <c r="B134" t="n">
-        <v>0.10416666665</v>
+        <v>0.08333333332000002</v>
       </c>
       <c r="C134" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333333999998</v>
       </c>
       <c r="D134" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572</v>
       </c>
       <c r="E134" t="n">
-        <v>0.13392857125</v>
+        <v>0.107142857</v>
       </c>
       <c r="F134" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572000001</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="H134" t="n">
-        <v>0.1339285714999998</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="I134" t="n">
-        <v>0.01785714275000017</v>
+        <v>0.107142857</v>
       </c>
       <c r="J134" t="n">
-        <v>0</v>
+        <v>0.1071428572000001</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333334</v>
       </c>
       <c r="B135" t="n">
-        <v>0.10416666665</v>
+        <v>0.08333333332000002</v>
       </c>
       <c r="C135" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333333999998</v>
       </c>
       <c r="D135" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572</v>
       </c>
       <c r="E135" t="n">
-        <v>0.13392857125</v>
+        <v>0.107142857</v>
       </c>
       <c r="F135" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572000001</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="H135" t="n">
-        <v>0.1339285714999998</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="I135" t="n">
-        <v>0.01785714275000017</v>
+        <v>0.107142857</v>
       </c>
       <c r="J135" t="n">
-        <v>0</v>
+        <v>0.1071428572000001</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333334</v>
       </c>
       <c r="B136" t="n">
-        <v>0.10416666665</v>
+        <v>0.08333333332000002</v>
       </c>
       <c r="C136" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333333999998</v>
       </c>
       <c r="D136" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572</v>
       </c>
       <c r="E136" t="n">
-        <v>0.13392857125</v>
+        <v>0.107142857</v>
       </c>
       <c r="F136" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572000001</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="H136" t="n">
-        <v>0.1339285714999998</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="I136" t="n">
-        <v>0.01785714275000017</v>
+        <v>0.107142857</v>
       </c>
       <c r="J136" t="n">
-        <v>0</v>
+        <v>0.1071428572000001</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333334</v>
       </c>
       <c r="B137" t="n">
-        <v>0.10416666665</v>
+        <v>0.08333333332000002</v>
       </c>
       <c r="C137" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333333999998</v>
       </c>
       <c r="D137" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572</v>
       </c>
       <c r="E137" t="n">
-        <v>0.13392857125</v>
+        <v>0.107142857</v>
       </c>
       <c r="F137" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572000001</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="H137" t="n">
-        <v>0.1339285714999998</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="I137" t="n">
-        <v>0.01785714275000017</v>
+        <v>0.107142857</v>
       </c>
       <c r="J137" t="n">
-        <v>0</v>
+        <v>0.1071428572000001</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333334</v>
       </c>
       <c r="B138" t="n">
-        <v>0.10416666665</v>
+        <v>0.08333333332000002</v>
       </c>
       <c r="C138" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333333999998</v>
       </c>
       <c r="D138" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572</v>
       </c>
       <c r="E138" t="n">
-        <v>0.13392857125</v>
+        <v>0.107142857</v>
       </c>
       <c r="F138" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572000001</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="H138" t="n">
-        <v>0.1339285714999998</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="I138" t="n">
-        <v>0.01785714275000017</v>
+        <v>0.107142857</v>
       </c>
       <c r="J138" t="n">
-        <v>0</v>
+        <v>0.1071428572000001</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333334</v>
       </c>
       <c r="B139" t="n">
-        <v>0.10416666665</v>
+        <v>0.08333333332000002</v>
       </c>
       <c r="C139" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333333999998</v>
       </c>
       <c r="D139" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572</v>
       </c>
       <c r="E139" t="n">
-        <v>0.13392857125</v>
+        <v>0.107142857</v>
       </c>
       <c r="F139" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572000001</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="H139" t="n">
-        <v>0.1339285714999998</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="I139" t="n">
-        <v>0.01785714275000017</v>
+        <v>0.107142857</v>
       </c>
       <c r="J139" t="n">
-        <v>0</v>
+        <v>0.1071428572000001</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333334</v>
       </c>
       <c r="B140" t="n">
-        <v>0.10416666665</v>
+        <v>0.08333333332000002</v>
       </c>
       <c r="C140" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333333999998</v>
       </c>
       <c r="D140" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572</v>
       </c>
       <c r="E140" t="n">
-        <v>0.13392857125</v>
+        <v>0.107142857</v>
       </c>
       <c r="F140" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572000001</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="H140" t="n">
-        <v>0.1339285714999998</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="I140" t="n">
-        <v>0.01785714275000017</v>
+        <v>0.107142857</v>
       </c>
       <c r="J140" t="n">
-        <v>0</v>
+        <v>0.1071428572000001</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333334</v>
       </c>
       <c r="B141" t="n">
-        <v>0.10416666665</v>
+        <v>0.08333333332000002</v>
       </c>
       <c r="C141" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333333999998</v>
       </c>
       <c r="D141" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572</v>
       </c>
       <c r="E141" t="n">
-        <v>0.13392857125</v>
+        <v>0.107142857</v>
       </c>
       <c r="F141" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572000001</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="H141" t="n">
-        <v>0.1339285714999998</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="I141" t="n">
-        <v>0.01785714275000017</v>
+        <v>0.107142857</v>
       </c>
       <c r="J141" t="n">
-        <v>0</v>
+        <v>0.1071428572000001</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333334</v>
       </c>
       <c r="B142" t="n">
-        <v>0.10416666665</v>
+        <v>0.08333333332000002</v>
       </c>
       <c r="C142" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333333999998</v>
       </c>
       <c r="D142" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572</v>
       </c>
       <c r="E142" t="n">
-        <v>0.13392857125</v>
+        <v>0.107142857</v>
       </c>
       <c r="F142" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572000001</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="H142" t="n">
-        <v>0.1339285714999998</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="I142" t="n">
-        <v>0.01785714275000017</v>
+        <v>0.107142857</v>
       </c>
       <c r="J142" t="n">
-        <v>0</v>
+        <v>0.1071428572000001</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333334</v>
       </c>
       <c r="B143" t="n">
-        <v>0.10416666665</v>
+        <v>0.08333333332000002</v>
       </c>
       <c r="C143" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333333999998</v>
       </c>
       <c r="D143" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572</v>
       </c>
       <c r="E143" t="n">
-        <v>0.13392857125</v>
+        <v>0.107142857</v>
       </c>
       <c r="F143" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572000001</v>
       </c>
       <c r="G143" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="H143" t="n">
-        <v>0.1339285714999998</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="I143" t="n">
-        <v>0.01785714275000017</v>
+        <v>0.107142857</v>
       </c>
       <c r="J143" t="n">
-        <v>0</v>
+        <v>0.1071428572000001</v>
       </c>
     </row>
     <row r="144">

--- a/models/calculation engines/economic_overlay/outputs/depth_splits_sedimentary_bauxite/depth_buckets-percent_tonnage_per_depth_range.xlsx
+++ b/models/calculation engines/economic_overlay/outputs/depth_splits_sedimentary_bauxite/depth_buckets-percent_tonnage_per_depth_range.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J165"/>
+  <dimension ref="A1:J178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -616,34 +616,34 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333334</v>
       </c>
       <c r="B6" t="n">
-        <v>0.10416666665</v>
+        <v>0.08333333332000002</v>
       </c>
       <c r="C6" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333333999998</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572</v>
       </c>
       <c r="E6" t="n">
-        <v>0.13392857125</v>
+        <v>0.107142857</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572000001</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1339285714999998</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01785714275000017</v>
+        <v>0.107142857</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.1071428572000001</v>
       </c>
     </row>
     <row r="7">
@@ -711,36 +711,16 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>0.104166666675</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.10416666665</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.104166666675</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.1339285715</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.13392857125</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.1339285715</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.1339285715</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.1339285714999998</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.01785714275000017</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -839,68 +819,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>0.104166666675</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.10416666665</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.104166666675</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.1339285715</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.13392857125</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.1339285715</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.1339285715</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.1339285714999998</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.01785714275000017</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>0.104166666675</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.10416666665</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.104166666675</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.1339285715</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.13392857125</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.1339285715</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.1339285715</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.1339285714999998</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.01785714275000017</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1064,34 +1004,34 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333334</v>
       </c>
       <c r="B20" t="n">
-        <v>0.10416666665</v>
+        <v>0.08333333332000002</v>
       </c>
       <c r="C20" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333333999998</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572</v>
       </c>
       <c r="E20" t="n">
-        <v>0.13392857125</v>
+        <v>0.107142857</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572000001</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1339285714999998</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01785714275000017</v>
+        <v>0.107142857</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>0.1071428572000001</v>
       </c>
     </row>
     <row r="21">
@@ -1160,99 +1100,79 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333334</v>
       </c>
       <c r="B23" t="n">
-        <v>0.10416666665</v>
+        <v>0.08333333332000002</v>
       </c>
       <c r="C23" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333333999998</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572</v>
       </c>
       <c r="E23" t="n">
-        <v>0.13392857125</v>
+        <v>0.107142857</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572000001</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1339285714999998</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="I23" t="n">
-        <v>0.01785714275000017</v>
+        <v>0.107142857</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.1071428572000001</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333334</v>
       </c>
       <c r="B24" t="n">
-        <v>0.10416666665</v>
+        <v>0.08333333332000002</v>
       </c>
       <c r="C24" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333333999998</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572</v>
       </c>
       <c r="E24" t="n">
-        <v>0.13392857125</v>
+        <v>0.107142857</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572000001</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1339285714999998</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="I24" t="n">
-        <v>0.01785714275000017</v>
+        <v>0.107142857</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.1071428572000001</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>0.104166666675</v>
-      </c>
-      <c r="B25" t="n">
-        <v>0.10416666665</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.104166666675</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.1339285715</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.13392857125</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.1339285715</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.1339285715</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.1339285714999998</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.01785714275000017</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1351,36 +1271,16 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>0.104166666675</v>
-      </c>
-      <c r="B29" t="n">
-        <v>0.10416666665</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.104166666675</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.1339285715</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.13392857125</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.1339285715</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.1339285715</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.1339285714999998</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0.01785714275000017</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1415,67 +1315,47 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>0.104166666675</v>
-      </c>
-      <c r="B31" t="n">
-        <v>0.10416666665</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.104166666675</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.1339285715</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.13392857125</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.1339285715</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.1339285715</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.1339285714999998</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.01785714275000017</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333334</v>
       </c>
       <c r="B32" t="n">
-        <v>0.10416666665</v>
+        <v>0.08333333332000002</v>
       </c>
       <c r="C32" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333333999998</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572</v>
       </c>
       <c r="E32" t="n">
-        <v>0.13392857125</v>
+        <v>0.107142857</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572000001</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="H32" t="n">
-        <v>0.1339285714999998</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="I32" t="n">
-        <v>0.01785714275000017</v>
+        <v>0.107142857</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>0.1071428572000001</v>
       </c>
     </row>
     <row r="33">
@@ -1639,100 +1519,60 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>0.104166666675</v>
-      </c>
-      <c r="B38" t="n">
-        <v>0.10416666665</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.104166666675</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.1339285715</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.13392857125</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.1339285715</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.1339285715</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.1339285714999998</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0.01785714275000017</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333334</v>
       </c>
       <c r="B39" t="n">
-        <v>0.10416666665</v>
+        <v>0.08333333332000002</v>
       </c>
       <c r="C39" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333333999998</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572</v>
       </c>
       <c r="E39" t="n">
-        <v>0.13392857125</v>
+        <v>0.107142857</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572000001</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="H39" t="n">
-        <v>0.1339285714999998</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="I39" t="n">
-        <v>0.01785714275000017</v>
+        <v>0.107142857</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.1071428572000001</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>0.104166666675</v>
-      </c>
-      <c r="B40" t="n">
-        <v>0.10416666665</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.104166666675</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.1339285715</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.13392857125</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.1339285715</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.1339285715</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0.1339285714999998</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0.01785714275000017</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1832,66 +1672,66 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333334</v>
       </c>
       <c r="B44" t="n">
-        <v>0.10416666665</v>
+        <v>0.08333333332000002</v>
       </c>
       <c r="C44" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333333999998</v>
       </c>
       <c r="D44" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572</v>
       </c>
       <c r="E44" t="n">
-        <v>0.13392857125</v>
+        <v>0.107142857</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572000001</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="H44" t="n">
-        <v>0.1339285714999998</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="I44" t="n">
-        <v>0.01785714275000017</v>
+        <v>0.107142857</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>0.1071428572000001</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333334</v>
       </c>
       <c r="B45" t="n">
-        <v>0.10416666665</v>
+        <v>0.08333333332000002</v>
       </c>
       <c r="C45" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333333999998</v>
       </c>
       <c r="D45" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572</v>
       </c>
       <c r="E45" t="n">
-        <v>0.13392857125</v>
+        <v>0.107142857</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572000001</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="H45" t="n">
-        <v>0.1339285714999998</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="I45" t="n">
-        <v>0.01785714275000017</v>
+        <v>0.107142857</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.1071428572000001</v>
       </c>
     </row>
     <row r="46">
@@ -1928,34 +1768,34 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333334</v>
       </c>
       <c r="B47" t="n">
-        <v>0.10416666665</v>
+        <v>0.08333333332000002</v>
       </c>
       <c r="C47" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333333999998</v>
       </c>
       <c r="D47" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572</v>
       </c>
       <c r="E47" t="n">
-        <v>0.13392857125</v>
+        <v>0.107142857</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572000001</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1339285714999998</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="I47" t="n">
-        <v>0.01785714275000017</v>
+        <v>0.107142857</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>0.1071428572000001</v>
       </c>
     </row>
     <row r="48">
@@ -2024,66 +1864,66 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333334</v>
       </c>
       <c r="B50" t="n">
-        <v>0.10416666665</v>
+        <v>0.08333333332000002</v>
       </c>
       <c r="C50" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333333999998</v>
       </c>
       <c r="D50" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572</v>
       </c>
       <c r="E50" t="n">
-        <v>0.13392857125</v>
+        <v>0.107142857</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572000001</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="H50" t="n">
-        <v>0.1339285714999998</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="I50" t="n">
-        <v>0.01785714275000017</v>
+        <v>0.107142857</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
+        <v>0.1071428572000001</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333334</v>
       </c>
       <c r="B51" t="n">
-        <v>0.10416666665</v>
+        <v>0.08333333332000002</v>
       </c>
       <c r="C51" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333333999998</v>
       </c>
       <c r="D51" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572</v>
       </c>
       <c r="E51" t="n">
-        <v>0.13392857125</v>
+        <v>0.107142857</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572000001</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="H51" t="n">
-        <v>0.1339285714999998</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="I51" t="n">
-        <v>0.01785714275000017</v>
+        <v>0.107142857</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>0.1071428572000001</v>
       </c>
     </row>
     <row r="52">
@@ -2120,98 +1960,98 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333334</v>
       </c>
       <c r="B53" t="n">
-        <v>0.10416666665</v>
+        <v>0.08333333332000002</v>
       </c>
       <c r="C53" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333333999998</v>
       </c>
       <c r="D53" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572</v>
       </c>
       <c r="E53" t="n">
-        <v>0.13392857125</v>
+        <v>0.107142857</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572000001</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="H53" t="n">
-        <v>0.1339285714999998</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="I53" t="n">
-        <v>0.01785714275000017</v>
+        <v>0.107142857</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>0.1071428572000001</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333334</v>
       </c>
       <c r="B54" t="n">
-        <v>0.10416666665</v>
+        <v>0.08333333332000002</v>
       </c>
       <c r="C54" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333333999998</v>
       </c>
       <c r="D54" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572</v>
       </c>
       <c r="E54" t="n">
-        <v>0.13392857125</v>
+        <v>0.107142857</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572000001</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1339285714999998</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="I54" t="n">
-        <v>0.01785714275000017</v>
+        <v>0.107142857</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>0.1071428572000001</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333334</v>
       </c>
       <c r="B55" t="n">
-        <v>0.10416666665</v>
+        <v>0.08333333332000002</v>
       </c>
       <c r="C55" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333333999998</v>
       </c>
       <c r="D55" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572</v>
       </c>
       <c r="E55" t="n">
-        <v>0.13392857125</v>
+        <v>0.107142857</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572000001</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1339285714999998</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="I55" t="n">
-        <v>0.01785714275000017</v>
+        <v>0.107142857</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
+        <v>0.1071428572000001</v>
       </c>
     </row>
     <row r="56">
@@ -2472,66 +2312,66 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333334</v>
       </c>
       <c r="B64" t="n">
-        <v>0.10416666665</v>
+        <v>0.08333333332000002</v>
       </c>
       <c r="C64" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333333999998</v>
       </c>
       <c r="D64" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572</v>
       </c>
       <c r="E64" t="n">
-        <v>0.13392857125</v>
+        <v>0.107142857</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572000001</v>
       </c>
       <c r="G64" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1339285714999998</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="I64" t="n">
-        <v>0.01785714275000017</v>
+        <v>0.107142857</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
+        <v>0.1071428572000001</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333334</v>
       </c>
       <c r="B65" t="n">
-        <v>0.10416666665</v>
+        <v>0.08333333332000002</v>
       </c>
       <c r="C65" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333333999998</v>
       </c>
       <c r="D65" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572</v>
       </c>
       <c r="E65" t="n">
-        <v>0.13392857125</v>
+        <v>0.107142857</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572000001</v>
       </c>
       <c r="G65" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="H65" t="n">
-        <v>0.1339285714999998</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="I65" t="n">
-        <v>0.01785714275000017</v>
+        <v>0.107142857</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
+        <v>0.1071428572000001</v>
       </c>
     </row>
     <row r="66">
@@ -2568,34 +2408,34 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333334</v>
       </c>
       <c r="B67" t="n">
-        <v>0.10416666665</v>
+        <v>0.08333333332000002</v>
       </c>
       <c r="C67" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333333999998</v>
       </c>
       <c r="D67" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572</v>
       </c>
       <c r="E67" t="n">
-        <v>0.13392857125</v>
+        <v>0.107142857</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572000001</v>
       </c>
       <c r="G67" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="H67" t="n">
-        <v>0.1339285714999998</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="I67" t="n">
-        <v>0.01785714275000017</v>
+        <v>0.107142857</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>0.1071428572000001</v>
       </c>
     </row>
     <row r="68">
@@ -2696,34 +2536,34 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333334</v>
       </c>
       <c r="B71" t="n">
-        <v>0.10416666665</v>
+        <v>0.08333333332000002</v>
       </c>
       <c r="C71" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333333999998</v>
       </c>
       <c r="D71" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572</v>
       </c>
       <c r="E71" t="n">
-        <v>0.13392857125</v>
+        <v>0.107142857</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572000001</v>
       </c>
       <c r="G71" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1339285714999998</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="I71" t="n">
-        <v>0.01785714275000017</v>
+        <v>0.107142857</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>0.1071428572000001</v>
       </c>
     </row>
     <row r="72">
@@ -2824,99 +2664,59 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333334</v>
       </c>
       <c r="B75" t="n">
-        <v>0.10416666665</v>
+        <v>0.08333333332000002</v>
       </c>
       <c r="C75" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333333999998</v>
       </c>
       <c r="D75" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572</v>
       </c>
       <c r="E75" t="n">
-        <v>0.13392857125</v>
+        <v>0.107142857</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572000001</v>
       </c>
       <c r="G75" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="H75" t="n">
-        <v>0.1339285714999998</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="I75" t="n">
-        <v>0.01785714275000017</v>
+        <v>0.107142857</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
+        <v>0.1071428572000001</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
-        <v>0.104166666675</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.10416666665</v>
-      </c>
-      <c r="C76" t="n">
-        <v>0.104166666675</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.1339285715</v>
-      </c>
-      <c r="E76" t="n">
-        <v>0.13392857125</v>
-      </c>
-      <c r="F76" t="n">
-        <v>0.1339285715</v>
-      </c>
-      <c r="G76" t="n">
-        <v>0.1339285715</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0.1339285714999998</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0.01785714275000017</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="A76" t="inlineStr"/>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="A77" t="n">
-        <v>0.104166666675</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.10416666665</v>
-      </c>
-      <c r="C77" t="n">
-        <v>0.104166666675</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.1339285715</v>
-      </c>
-      <c r="E77" t="n">
-        <v>0.13392857125</v>
-      </c>
-      <c r="F77" t="n">
-        <v>0.1339285715</v>
-      </c>
-      <c r="G77" t="n">
-        <v>0.1339285715</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0.1339285714999998</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0.01785714275000017</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="A77" t="inlineStr"/>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -3144,34 +2944,34 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333334</v>
       </c>
       <c r="B85" t="n">
-        <v>0.10416666665</v>
+        <v>0.08333333332000002</v>
       </c>
       <c r="C85" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333333999998</v>
       </c>
       <c r="D85" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572</v>
       </c>
       <c r="E85" t="n">
-        <v>0.13392857125</v>
+        <v>0.107142857</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572000001</v>
       </c>
       <c r="G85" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1339285714999998</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="I85" t="n">
-        <v>0.01785714275000017</v>
+        <v>0.107142857</v>
       </c>
       <c r="J85" t="n">
-        <v>0</v>
+        <v>0.1071428572000001</v>
       </c>
     </row>
     <row r="86">
@@ -3688,34 +3488,34 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333334</v>
       </c>
       <c r="B102" t="n">
-        <v>0.10416666665</v>
+        <v>0.08333333332000002</v>
       </c>
       <c r="C102" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333333999998</v>
       </c>
       <c r="D102" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572</v>
       </c>
       <c r="E102" t="n">
-        <v>0.13392857125</v>
+        <v>0.107142857</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572000001</v>
       </c>
       <c r="G102" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="H102" t="n">
-        <v>0.1339285714999998</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="I102" t="n">
-        <v>0.01785714275000017</v>
+        <v>0.107142857</v>
       </c>
       <c r="J102" t="n">
-        <v>0</v>
+        <v>0.1071428572000001</v>
       </c>
     </row>
     <row r="103">
@@ -3784,98 +3584,98 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.08333333334</v>
+        <v>0.104166666675</v>
       </c>
       <c r="B105" t="n">
-        <v>0.08333333332000002</v>
+        <v>0.10416666665</v>
       </c>
       <c r="C105" t="n">
-        <v>0.08333333333999998</v>
+        <v>0.104166666675</v>
       </c>
       <c r="D105" t="n">
-        <v>0.1071428572</v>
+        <v>0.1339285715</v>
       </c>
       <c r="E105" t="n">
-        <v>0.107142857</v>
+        <v>0.13392857125</v>
       </c>
       <c r="F105" t="n">
-        <v>0.1071428572000001</v>
+        <v>0.1339285715</v>
       </c>
       <c r="G105" t="n">
-        <v>0.1071428571999999</v>
+        <v>0.1339285715</v>
       </c>
       <c r="H105" t="n">
-        <v>0.1071428571999999</v>
+        <v>0.1339285714999998</v>
       </c>
       <c r="I105" t="n">
-        <v>0.107142857</v>
+        <v>0.01785714275000017</v>
       </c>
       <c r="J105" t="n">
-        <v>0.1071428572000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.08333333334</v>
+        <v>0.104166666675</v>
       </c>
       <c r="B106" t="n">
-        <v>0.08333333332000002</v>
+        <v>0.10416666665</v>
       </c>
       <c r="C106" t="n">
-        <v>0.08333333333999998</v>
+        <v>0.104166666675</v>
       </c>
       <c r="D106" t="n">
-        <v>0.1071428572</v>
+        <v>0.1339285715</v>
       </c>
       <c r="E106" t="n">
-        <v>0.107142857</v>
+        <v>0.13392857125</v>
       </c>
       <c r="F106" t="n">
-        <v>0.1071428572000001</v>
+        <v>0.1339285715</v>
       </c>
       <c r="G106" t="n">
-        <v>0.1071428571999999</v>
+        <v>0.1339285715</v>
       </c>
       <c r="H106" t="n">
-        <v>0.1071428571999999</v>
+        <v>0.1339285714999998</v>
       </c>
       <c r="I106" t="n">
-        <v>0.107142857</v>
+        <v>0.01785714275000017</v>
       </c>
       <c r="J106" t="n">
-        <v>0.1071428572000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.08333333334</v>
+        <v>0.104166666675</v>
       </c>
       <c r="B107" t="n">
-        <v>0.08333333332000002</v>
+        <v>0.10416666665</v>
       </c>
       <c r="C107" t="n">
-        <v>0.08333333333999998</v>
+        <v>0.104166666675</v>
       </c>
       <c r="D107" t="n">
-        <v>0.1071428572</v>
+        <v>0.1339285715</v>
       </c>
       <c r="E107" t="n">
-        <v>0.107142857</v>
+        <v>0.13392857125</v>
       </c>
       <c r="F107" t="n">
-        <v>0.1071428572000001</v>
+        <v>0.1339285715</v>
       </c>
       <c r="G107" t="n">
-        <v>0.1071428571999999</v>
+        <v>0.1339285715</v>
       </c>
       <c r="H107" t="n">
-        <v>0.1071428571999999</v>
+        <v>0.1339285714999998</v>
       </c>
       <c r="I107" t="n">
-        <v>0.107142857</v>
+        <v>0.01785714275000017</v>
       </c>
       <c r="J107" t="n">
-        <v>0.1071428572000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -3912,194 +3712,194 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.08333333334</v>
+        <v>0.104166666675</v>
       </c>
       <c r="B109" t="n">
-        <v>0.08333333332000002</v>
+        <v>0.10416666665</v>
       </c>
       <c r="C109" t="n">
-        <v>0.08333333333999998</v>
+        <v>0.104166666675</v>
       </c>
       <c r="D109" t="n">
-        <v>0.1071428572</v>
+        <v>0.1339285715</v>
       </c>
       <c r="E109" t="n">
-        <v>0.107142857</v>
+        <v>0.13392857125</v>
       </c>
       <c r="F109" t="n">
-        <v>0.1071428572000001</v>
+        <v>0.1339285715</v>
       </c>
       <c r="G109" t="n">
-        <v>0.1071428571999999</v>
+        <v>0.1339285715</v>
       </c>
       <c r="H109" t="n">
-        <v>0.1071428571999999</v>
+        <v>0.1339285714999998</v>
       </c>
       <c r="I109" t="n">
-        <v>0.107142857</v>
+        <v>0.01785714275000017</v>
       </c>
       <c r="J109" t="n">
-        <v>0.1071428572000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.08333333334</v>
+        <v>0.104166666675</v>
       </c>
       <c r="B110" t="n">
-        <v>0.08333333332000002</v>
+        <v>0.10416666665</v>
       </c>
       <c r="C110" t="n">
-        <v>0.08333333333999998</v>
+        <v>0.104166666675</v>
       </c>
       <c r="D110" t="n">
-        <v>0.1071428572</v>
+        <v>0.1339285715</v>
       </c>
       <c r="E110" t="n">
-        <v>0.107142857</v>
+        <v>0.13392857125</v>
       </c>
       <c r="F110" t="n">
-        <v>0.1071428572000001</v>
+        <v>0.1339285715</v>
       </c>
       <c r="G110" t="n">
-        <v>0.1071428571999999</v>
+        <v>0.1339285715</v>
       </c>
       <c r="H110" t="n">
-        <v>0.1071428571999999</v>
+        <v>0.1339285714999998</v>
       </c>
       <c r="I110" t="n">
-        <v>0.107142857</v>
+        <v>0.01785714275000017</v>
       </c>
       <c r="J110" t="n">
-        <v>0.1071428572000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.08333333334</v>
+        <v>0.104166666675</v>
       </c>
       <c r="B111" t="n">
-        <v>0.08333333332000002</v>
+        <v>0.10416666665</v>
       </c>
       <c r="C111" t="n">
-        <v>0.08333333333999998</v>
+        <v>0.104166666675</v>
       </c>
       <c r="D111" t="n">
-        <v>0.1071428572</v>
+        <v>0.1339285715</v>
       </c>
       <c r="E111" t="n">
-        <v>0.107142857</v>
+        <v>0.13392857125</v>
       </c>
       <c r="F111" t="n">
-        <v>0.1071428572000001</v>
+        <v>0.1339285715</v>
       </c>
       <c r="G111" t="n">
-        <v>0.1071428571999999</v>
+        <v>0.1339285715</v>
       </c>
       <c r="H111" t="n">
-        <v>0.1071428571999999</v>
+        <v>0.1339285714999998</v>
       </c>
       <c r="I111" t="n">
-        <v>0.107142857</v>
+        <v>0.01785714275000017</v>
       </c>
       <c r="J111" t="n">
-        <v>0.1071428572000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.08333333334</v>
+        <v>0.104166666675</v>
       </c>
       <c r="B112" t="n">
-        <v>0.08333333332000002</v>
+        <v>0.10416666665</v>
       </c>
       <c r="C112" t="n">
-        <v>0.08333333333999998</v>
+        <v>0.104166666675</v>
       </c>
       <c r="D112" t="n">
-        <v>0.1071428572</v>
+        <v>0.1339285715</v>
       </c>
       <c r="E112" t="n">
-        <v>0.107142857</v>
+        <v>0.13392857125</v>
       </c>
       <c r="F112" t="n">
-        <v>0.1071428572000001</v>
+        <v>0.1339285715</v>
       </c>
       <c r="G112" t="n">
-        <v>0.1071428571999999</v>
+        <v>0.1339285715</v>
       </c>
       <c r="H112" t="n">
-        <v>0.1071428571999999</v>
+        <v>0.1339285714999998</v>
       </c>
       <c r="I112" t="n">
-        <v>0.107142857</v>
+        <v>0.01785714275000017</v>
       </c>
       <c r="J112" t="n">
-        <v>0.1071428572000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.08333333334</v>
+        <v>0.104166666675</v>
       </c>
       <c r="B113" t="n">
-        <v>0.08333333332000002</v>
+        <v>0.10416666665</v>
       </c>
       <c r="C113" t="n">
-        <v>0.08333333333999998</v>
+        <v>0.104166666675</v>
       </c>
       <c r="D113" t="n">
-        <v>0.1071428572</v>
+        <v>0.1339285715</v>
       </c>
       <c r="E113" t="n">
-        <v>0.107142857</v>
+        <v>0.13392857125</v>
       </c>
       <c r="F113" t="n">
-        <v>0.1071428572000001</v>
+        <v>0.1339285715</v>
       </c>
       <c r="G113" t="n">
-        <v>0.1071428571999999</v>
+        <v>0.1339285715</v>
       </c>
       <c r="H113" t="n">
-        <v>0.1071428571999999</v>
+        <v>0.1339285714999998</v>
       </c>
       <c r="I113" t="n">
-        <v>0.107142857</v>
+        <v>0.01785714275000017</v>
       </c>
       <c r="J113" t="n">
-        <v>0.1071428572000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.08333333334</v>
+        <v>0.104166666675</v>
       </c>
       <c r="B114" t="n">
-        <v>0.08333333332000002</v>
+        <v>0.10416666665</v>
       </c>
       <c r="C114" t="n">
-        <v>0.08333333333999998</v>
+        <v>0.104166666675</v>
       </c>
       <c r="D114" t="n">
-        <v>0.1071428572</v>
+        <v>0.1339285715</v>
       </c>
       <c r="E114" t="n">
-        <v>0.107142857</v>
+        <v>0.13392857125</v>
       </c>
       <c r="F114" t="n">
-        <v>0.1071428572000001</v>
+        <v>0.1339285715</v>
       </c>
       <c r="G114" t="n">
-        <v>0.1071428571999999</v>
+        <v>0.1339285715</v>
       </c>
       <c r="H114" t="n">
-        <v>0.1071428571999999</v>
+        <v>0.1339285714999998</v>
       </c>
       <c r="I114" t="n">
-        <v>0.107142857</v>
+        <v>0.01785714275000017</v>
       </c>
       <c r="J114" t="n">
-        <v>0.1071428572000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -4135,227 +3935,187 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="n">
-        <v>0.08333333334</v>
-      </c>
-      <c r="B116" t="n">
-        <v>0.08333333332000002</v>
-      </c>
-      <c r="C116" t="n">
-        <v>0.08333333333999998</v>
-      </c>
-      <c r="D116" t="n">
-        <v>0.1071428572</v>
-      </c>
-      <c r="E116" t="n">
-        <v>0.107142857</v>
-      </c>
-      <c r="F116" t="n">
-        <v>0.1071428572000001</v>
-      </c>
-      <c r="G116" t="n">
-        <v>0.1071428571999999</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0.1071428571999999</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0.107142857</v>
-      </c>
-      <c r="J116" t="n">
-        <v>0.1071428572000001</v>
-      </c>
+      <c r="A116" t="inlineStr"/>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.08333333334</v>
+        <v>0.104166666675</v>
       </c>
       <c r="B117" t="n">
-        <v>0.08333333332000002</v>
+        <v>0.10416666665</v>
       </c>
       <c r="C117" t="n">
-        <v>0.08333333333999998</v>
+        <v>0.104166666675</v>
       </c>
       <c r="D117" t="n">
-        <v>0.1071428572</v>
+        <v>0.1339285715</v>
       </c>
       <c r="E117" t="n">
-        <v>0.107142857</v>
+        <v>0.13392857125</v>
       </c>
       <c r="F117" t="n">
-        <v>0.1071428572000001</v>
+        <v>0.1339285715</v>
       </c>
       <c r="G117" t="n">
-        <v>0.1071428571999999</v>
+        <v>0.1339285715</v>
       </c>
       <c r="H117" t="n">
-        <v>0.1071428571999999</v>
+        <v>0.1339285714999998</v>
       </c>
       <c r="I117" t="n">
-        <v>0.107142857</v>
+        <v>0.01785714275000017</v>
       </c>
       <c r="J117" t="n">
-        <v>0.1071428572000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.08333333334</v>
+        <v>0.104166666675</v>
       </c>
       <c r="B118" t="n">
-        <v>0.08333333332000002</v>
+        <v>0.10416666665</v>
       </c>
       <c r="C118" t="n">
-        <v>0.08333333333999998</v>
+        <v>0.104166666675</v>
       </c>
       <c r="D118" t="n">
-        <v>0.1071428572</v>
+        <v>0.1339285715</v>
       </c>
       <c r="E118" t="n">
-        <v>0.107142857</v>
+        <v>0.13392857125</v>
       </c>
       <c r="F118" t="n">
-        <v>0.1071428572000001</v>
+        <v>0.1339285715</v>
       </c>
       <c r="G118" t="n">
-        <v>0.1071428571999999</v>
+        <v>0.1339285715</v>
       </c>
       <c r="H118" t="n">
-        <v>0.1071428571999999</v>
+        <v>0.1339285714999998</v>
       </c>
       <c r="I118" t="n">
-        <v>0.107142857</v>
+        <v>0.01785714275000017</v>
       </c>
       <c r="J118" t="n">
-        <v>0.1071428572000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="n">
-        <v>0.08333333334</v>
-      </c>
-      <c r="B119" t="n">
-        <v>0.08333333332000002</v>
-      </c>
-      <c r="C119" t="n">
-        <v>0.08333333333999998</v>
-      </c>
-      <c r="D119" t="n">
-        <v>0.1071428572</v>
-      </c>
-      <c r="E119" t="n">
-        <v>0.107142857</v>
-      </c>
-      <c r="F119" t="n">
-        <v>0.1071428572000001</v>
-      </c>
-      <c r="G119" t="n">
-        <v>0.1071428571999999</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0.1071428571999999</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0.107142857</v>
-      </c>
-      <c r="J119" t="n">
-        <v>0.1071428572000001</v>
-      </c>
+      <c r="A119" t="inlineStr"/>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.08333333334</v>
+        <v>0.104166666675</v>
       </c>
       <c r="B120" t="n">
-        <v>0.08333333332000002</v>
+        <v>0.10416666665</v>
       </c>
       <c r="C120" t="n">
-        <v>0.08333333333999998</v>
+        <v>0.104166666675</v>
       </c>
       <c r="D120" t="n">
-        <v>0.1071428572</v>
+        <v>0.1339285715</v>
       </c>
       <c r="E120" t="n">
-        <v>0.107142857</v>
+        <v>0.13392857125</v>
       </c>
       <c r="F120" t="n">
-        <v>0.1071428572000001</v>
+        <v>0.1339285715</v>
       </c>
       <c r="G120" t="n">
-        <v>0.1071428571999999</v>
+        <v>0.1339285715</v>
       </c>
       <c r="H120" t="n">
-        <v>0.1071428571999999</v>
+        <v>0.1339285714999998</v>
       </c>
       <c r="I120" t="n">
-        <v>0.107142857</v>
+        <v>0.01785714275000017</v>
       </c>
       <c r="J120" t="n">
-        <v>0.1071428572000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.08333333334</v>
+        <v>0.104166666675</v>
       </c>
       <c r="B121" t="n">
-        <v>0.08333333332000002</v>
+        <v>0.10416666665</v>
       </c>
       <c r="C121" t="n">
-        <v>0.08333333333999998</v>
+        <v>0.104166666675</v>
       </c>
       <c r="D121" t="n">
-        <v>0.1071428572</v>
+        <v>0.1339285715</v>
       </c>
       <c r="E121" t="n">
-        <v>0.107142857</v>
+        <v>0.13392857125</v>
       </c>
       <c r="F121" t="n">
-        <v>0.1071428572000001</v>
+        <v>0.1339285715</v>
       </c>
       <c r="G121" t="n">
-        <v>0.1071428571999999</v>
+        <v>0.1339285715</v>
       </c>
       <c r="H121" t="n">
-        <v>0.1071428571999999</v>
+        <v>0.1339285714999998</v>
       </c>
       <c r="I121" t="n">
-        <v>0.107142857</v>
+        <v>0.01785714275000017</v>
       </c>
       <c r="J121" t="n">
-        <v>0.1071428572000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.08333333334</v>
+        <v>0.104166666675</v>
       </c>
       <c r="B122" t="n">
-        <v>0.08333333332000002</v>
+        <v>0.10416666665</v>
       </c>
       <c r="C122" t="n">
-        <v>0.08333333333999998</v>
+        <v>0.104166666675</v>
       </c>
       <c r="D122" t="n">
-        <v>0.1071428572</v>
+        <v>0.1339285715</v>
       </c>
       <c r="E122" t="n">
-        <v>0.107142857</v>
+        <v>0.13392857125</v>
       </c>
       <c r="F122" t="n">
-        <v>0.1071428572000001</v>
+        <v>0.1339285715</v>
       </c>
       <c r="G122" t="n">
-        <v>0.1071428571999999</v>
+        <v>0.1339285715</v>
       </c>
       <c r="H122" t="n">
-        <v>0.1071428571999999</v>
+        <v>0.1339285714999998</v>
       </c>
       <c r="I122" t="n">
-        <v>0.107142857</v>
+        <v>0.01785714275000017</v>
       </c>
       <c r="J122" t="n">
-        <v>0.1071428572000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -4424,546 +4184,526 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.08333333334</v>
+        <v>0.104166666675</v>
       </c>
       <c r="B125" t="n">
-        <v>0.08333333332000002</v>
+        <v>0.10416666665</v>
       </c>
       <c r="C125" t="n">
-        <v>0.08333333333999998</v>
+        <v>0.104166666675</v>
       </c>
       <c r="D125" t="n">
-        <v>0.1071428572</v>
+        <v>0.1339285715</v>
       </c>
       <c r="E125" t="n">
-        <v>0.107142857</v>
+        <v>0.13392857125</v>
       </c>
       <c r="F125" t="n">
-        <v>0.1071428572000001</v>
+        <v>0.1339285715</v>
       </c>
       <c r="G125" t="n">
-        <v>0.1071428571999999</v>
+        <v>0.1339285715</v>
       </c>
       <c r="H125" t="n">
-        <v>0.1071428571999999</v>
+        <v>0.1339285714999998</v>
       </c>
       <c r="I125" t="n">
-        <v>0.107142857</v>
+        <v>0.01785714275000017</v>
       </c>
       <c r="J125" t="n">
-        <v>0.1071428572000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.08333333334</v>
+        <v>0.104166666675</v>
       </c>
       <c r="B126" t="n">
-        <v>0.08333333332000002</v>
+        <v>0.10416666665</v>
       </c>
       <c r="C126" t="n">
-        <v>0.08333333333999998</v>
+        <v>0.104166666675</v>
       </c>
       <c r="D126" t="n">
-        <v>0.1071428572</v>
+        <v>0.1339285715</v>
       </c>
       <c r="E126" t="n">
-        <v>0.107142857</v>
+        <v>0.13392857125</v>
       </c>
       <c r="F126" t="n">
-        <v>0.1071428572000001</v>
+        <v>0.1339285715</v>
       </c>
       <c r="G126" t="n">
-        <v>0.1071428571999999</v>
+        <v>0.1339285715</v>
       </c>
       <c r="H126" t="n">
-        <v>0.1071428571999999</v>
+        <v>0.1339285714999998</v>
       </c>
       <c r="I126" t="n">
-        <v>0.107142857</v>
+        <v>0.01785714275000017</v>
       </c>
       <c r="J126" t="n">
-        <v>0.1071428572000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.08333333334</v>
+        <v>0.104166666675</v>
       </c>
       <c r="B127" t="n">
-        <v>0.08333333332000002</v>
+        <v>0.10416666665</v>
       </c>
       <c r="C127" t="n">
-        <v>0.08333333333999998</v>
+        <v>0.104166666675</v>
       </c>
       <c r="D127" t="n">
-        <v>0.1071428572</v>
+        <v>0.1339285715</v>
       </c>
       <c r="E127" t="n">
-        <v>0.107142857</v>
+        <v>0.13392857125</v>
       </c>
       <c r="F127" t="n">
-        <v>0.1071428572000001</v>
+        <v>0.1339285715</v>
       </c>
       <c r="G127" t="n">
-        <v>0.1071428571999999</v>
+        <v>0.1339285715</v>
       </c>
       <c r="H127" t="n">
-        <v>0.1071428571999999</v>
+        <v>0.1339285714999998</v>
       </c>
       <c r="I127" t="n">
-        <v>0.107142857</v>
+        <v>0.01785714275000017</v>
       </c>
       <c r="J127" t="n">
-        <v>0.1071428572000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.08333333334</v>
+        <v>0.104166666675</v>
       </c>
       <c r="B128" t="n">
-        <v>0.08333333332000002</v>
+        <v>0.10416666665</v>
       </c>
       <c r="C128" t="n">
-        <v>0.08333333333999998</v>
+        <v>0.104166666675</v>
       </c>
       <c r="D128" t="n">
-        <v>0.1071428572</v>
+        <v>0.1339285715</v>
       </c>
       <c r="E128" t="n">
-        <v>0.107142857</v>
+        <v>0.13392857125</v>
       </c>
       <c r="F128" t="n">
-        <v>0.1071428572000001</v>
+        <v>0.1339285715</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1071428571999999</v>
+        <v>0.1339285715</v>
       </c>
       <c r="H128" t="n">
-        <v>0.1071428571999999</v>
+        <v>0.1339285714999998</v>
       </c>
       <c r="I128" t="n">
-        <v>0.107142857</v>
+        <v>0.01785714275000017</v>
       </c>
       <c r="J128" t="n">
-        <v>0.1071428572000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.08333333334</v>
+        <v>0.104166666675</v>
       </c>
       <c r="B129" t="n">
-        <v>0.08333333332000002</v>
+        <v>0.10416666665</v>
       </c>
       <c r="C129" t="n">
-        <v>0.08333333333999998</v>
+        <v>0.104166666675</v>
       </c>
       <c r="D129" t="n">
-        <v>0.1071428572</v>
+        <v>0.1339285715</v>
       </c>
       <c r="E129" t="n">
-        <v>0.107142857</v>
+        <v>0.13392857125</v>
       </c>
       <c r="F129" t="n">
-        <v>0.1071428572000001</v>
+        <v>0.1339285715</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1071428571999999</v>
+        <v>0.1339285715</v>
       </c>
       <c r="H129" t="n">
-        <v>0.1071428571999999</v>
+        <v>0.1339285714999998</v>
       </c>
       <c r="I129" t="n">
-        <v>0.107142857</v>
+        <v>0.01785714275000017</v>
       </c>
       <c r="J129" t="n">
-        <v>0.1071428572000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.08333333334</v>
+        <v>0.104166666675</v>
       </c>
       <c r="B130" t="n">
-        <v>0.08333333332000002</v>
+        <v>0.10416666665</v>
       </c>
       <c r="C130" t="n">
-        <v>0.08333333333999998</v>
+        <v>0.104166666675</v>
       </c>
       <c r="D130" t="n">
-        <v>0.1071428572</v>
+        <v>0.1339285715</v>
       </c>
       <c r="E130" t="n">
-        <v>0.107142857</v>
+        <v>0.13392857125</v>
       </c>
       <c r="F130" t="n">
-        <v>0.1071428572000001</v>
+        <v>0.1339285715</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1071428571999999</v>
+        <v>0.1339285715</v>
       </c>
       <c r="H130" t="n">
-        <v>0.1071428571999999</v>
+        <v>0.1339285714999998</v>
       </c>
       <c r="I130" t="n">
-        <v>0.107142857</v>
+        <v>0.01785714275000017</v>
       </c>
       <c r="J130" t="n">
-        <v>0.1071428572000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.08333333334</v>
+        <v>0.104166666675</v>
       </c>
       <c r="B131" t="n">
-        <v>0.08333333332000002</v>
+        <v>0.10416666665</v>
       </c>
       <c r="C131" t="n">
-        <v>0.08333333333999998</v>
+        <v>0.104166666675</v>
       </c>
       <c r="D131" t="n">
-        <v>0.1071428572</v>
+        <v>0.1339285715</v>
       </c>
       <c r="E131" t="n">
-        <v>0.107142857</v>
+        <v>0.13392857125</v>
       </c>
       <c r="F131" t="n">
-        <v>0.1071428572000001</v>
+        <v>0.1339285715</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1071428571999999</v>
+        <v>0.1339285715</v>
       </c>
       <c r="H131" t="n">
-        <v>0.1071428571999999</v>
+        <v>0.1339285714999998</v>
       </c>
       <c r="I131" t="n">
-        <v>0.107142857</v>
+        <v>0.01785714275000017</v>
       </c>
       <c r="J131" t="n">
-        <v>0.1071428572000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.08333333334</v>
+        <v>0.104166666675</v>
       </c>
       <c r="B132" t="n">
-        <v>0.08333333332000002</v>
+        <v>0.10416666665</v>
       </c>
       <c r="C132" t="n">
-        <v>0.08333333333999998</v>
+        <v>0.104166666675</v>
       </c>
       <c r="D132" t="n">
-        <v>0.1071428572</v>
+        <v>0.1339285715</v>
       </c>
       <c r="E132" t="n">
-        <v>0.107142857</v>
+        <v>0.13392857125</v>
       </c>
       <c r="F132" t="n">
-        <v>0.1071428572000001</v>
+        <v>0.1339285715</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1071428571999999</v>
+        <v>0.1339285715</v>
       </c>
       <c r="H132" t="n">
-        <v>0.1071428571999999</v>
+        <v>0.1339285714999998</v>
       </c>
       <c r="I132" t="n">
-        <v>0.107142857</v>
+        <v>0.01785714275000017</v>
       </c>
       <c r="J132" t="n">
-        <v>0.1071428572000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.08333333334</v>
+        <v>0.104166666675</v>
       </c>
       <c r="B133" t="n">
-        <v>0.08333333332000002</v>
+        <v>0.10416666665</v>
       </c>
       <c r="C133" t="n">
-        <v>0.08333333333999998</v>
+        <v>0.104166666675</v>
       </c>
       <c r="D133" t="n">
-        <v>0.1071428572</v>
+        <v>0.1339285715</v>
       </c>
       <c r="E133" t="n">
-        <v>0.107142857</v>
+        <v>0.13392857125</v>
       </c>
       <c r="F133" t="n">
-        <v>0.1071428572000001</v>
+        <v>0.1339285715</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1071428571999999</v>
+        <v>0.1339285715</v>
       </c>
       <c r="H133" t="n">
-        <v>0.1071428571999999</v>
+        <v>0.1339285714999998</v>
       </c>
       <c r="I133" t="n">
-        <v>0.107142857</v>
+        <v>0.01785714275000017</v>
       </c>
       <c r="J133" t="n">
-        <v>0.1071428572000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.08333333334</v>
+        <v>0.104166666675</v>
       </c>
       <c r="B134" t="n">
-        <v>0.08333333332000002</v>
+        <v>0.10416666665</v>
       </c>
       <c r="C134" t="n">
-        <v>0.08333333333999998</v>
+        <v>0.104166666675</v>
       </c>
       <c r="D134" t="n">
-        <v>0.1071428572</v>
+        <v>0.1339285715</v>
       </c>
       <c r="E134" t="n">
-        <v>0.107142857</v>
+        <v>0.13392857125</v>
       </c>
       <c r="F134" t="n">
-        <v>0.1071428572000001</v>
+        <v>0.1339285715</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1071428571999999</v>
+        <v>0.1339285715</v>
       </c>
       <c r="H134" t="n">
-        <v>0.1071428571999999</v>
+        <v>0.1339285714999998</v>
       </c>
       <c r="I134" t="n">
-        <v>0.107142857</v>
+        <v>0.01785714275000017</v>
       </c>
       <c r="J134" t="n">
-        <v>0.1071428572000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="n">
-        <v>0.08333333334</v>
-      </c>
-      <c r="B135" t="n">
-        <v>0.08333333332000002</v>
-      </c>
-      <c r="C135" t="n">
-        <v>0.08333333333999998</v>
-      </c>
-      <c r="D135" t="n">
-        <v>0.1071428572</v>
-      </c>
-      <c r="E135" t="n">
-        <v>0.107142857</v>
-      </c>
-      <c r="F135" t="n">
-        <v>0.1071428572000001</v>
-      </c>
-      <c r="G135" t="n">
-        <v>0.1071428571999999</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0.1071428571999999</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0.107142857</v>
-      </c>
-      <c r="J135" t="n">
-        <v>0.1071428572000001</v>
-      </c>
+      <c r="A135" t="inlineStr"/>
+      <c r="B135" t="inlineStr"/>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.08333333334</v>
+        <v>0.104166666675</v>
       </c>
       <c r="B136" t="n">
-        <v>0.08333333332000002</v>
+        <v>0.10416666665</v>
       </c>
       <c r="C136" t="n">
-        <v>0.08333333333999998</v>
+        <v>0.104166666675</v>
       </c>
       <c r="D136" t="n">
-        <v>0.1071428572</v>
+        <v>0.1339285715</v>
       </c>
       <c r="E136" t="n">
-        <v>0.107142857</v>
+        <v>0.13392857125</v>
       </c>
       <c r="F136" t="n">
-        <v>0.1071428572000001</v>
+        <v>0.1339285715</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1071428571999999</v>
+        <v>0.1339285715</v>
       </c>
       <c r="H136" t="n">
-        <v>0.1071428571999999</v>
+        <v>0.1339285714999998</v>
       </c>
       <c r="I136" t="n">
-        <v>0.107142857</v>
+        <v>0.01785714275000017</v>
       </c>
       <c r="J136" t="n">
-        <v>0.1071428572000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.08333333334</v>
+        <v>0.104166666675</v>
       </c>
       <c r="B137" t="n">
-        <v>0.08333333332000002</v>
+        <v>0.10416666665</v>
       </c>
       <c r="C137" t="n">
-        <v>0.08333333333999998</v>
+        <v>0.104166666675</v>
       </c>
       <c r="D137" t="n">
-        <v>0.1071428572</v>
+        <v>0.1339285715</v>
       </c>
       <c r="E137" t="n">
-        <v>0.107142857</v>
+        <v>0.13392857125</v>
       </c>
       <c r="F137" t="n">
-        <v>0.1071428572000001</v>
+        <v>0.1339285715</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1071428571999999</v>
+        <v>0.1339285715</v>
       </c>
       <c r="H137" t="n">
-        <v>0.1071428571999999</v>
+        <v>0.1339285714999998</v>
       </c>
       <c r="I137" t="n">
-        <v>0.107142857</v>
+        <v>0.01785714275000017</v>
       </c>
       <c r="J137" t="n">
-        <v>0.1071428572000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.08333333334</v>
+        <v>0.104166666675</v>
       </c>
       <c r="B138" t="n">
-        <v>0.08333333332000002</v>
+        <v>0.10416666665</v>
       </c>
       <c r="C138" t="n">
-        <v>0.08333333333999998</v>
+        <v>0.104166666675</v>
       </c>
       <c r="D138" t="n">
-        <v>0.1071428572</v>
+        <v>0.1339285715</v>
       </c>
       <c r="E138" t="n">
-        <v>0.107142857</v>
+        <v>0.13392857125</v>
       </c>
       <c r="F138" t="n">
-        <v>0.1071428572000001</v>
+        <v>0.1339285715</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1071428571999999</v>
+        <v>0.1339285715</v>
       </c>
       <c r="H138" t="n">
-        <v>0.1071428571999999</v>
+        <v>0.1339285714999998</v>
       </c>
       <c r="I138" t="n">
-        <v>0.107142857</v>
+        <v>0.01785714275000017</v>
       </c>
       <c r="J138" t="n">
-        <v>0.1071428572000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.08333333334</v>
+        <v>0.104166666675</v>
       </c>
       <c r="B139" t="n">
-        <v>0.08333333332000002</v>
+        <v>0.10416666665</v>
       </c>
       <c r="C139" t="n">
-        <v>0.08333333333999998</v>
+        <v>0.104166666675</v>
       </c>
       <c r="D139" t="n">
-        <v>0.1071428572</v>
+        <v>0.1339285715</v>
       </c>
       <c r="E139" t="n">
-        <v>0.107142857</v>
+        <v>0.13392857125</v>
       </c>
       <c r="F139" t="n">
-        <v>0.1071428572000001</v>
+        <v>0.1339285715</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1071428571999999</v>
+        <v>0.1339285715</v>
       </c>
       <c r="H139" t="n">
-        <v>0.1071428571999999</v>
+        <v>0.1339285714999998</v>
       </c>
       <c r="I139" t="n">
-        <v>0.107142857</v>
+        <v>0.01785714275000017</v>
       </c>
       <c r="J139" t="n">
-        <v>0.1071428572000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.08333333334</v>
+        <v>0.104166666675</v>
       </c>
       <c r="B140" t="n">
-        <v>0.08333333332000002</v>
+        <v>0.10416666665</v>
       </c>
       <c r="C140" t="n">
-        <v>0.08333333333999998</v>
+        <v>0.104166666675</v>
       </c>
       <c r="D140" t="n">
-        <v>0.1071428572</v>
+        <v>0.1339285715</v>
       </c>
       <c r="E140" t="n">
-        <v>0.107142857</v>
+        <v>0.13392857125</v>
       </c>
       <c r="F140" t="n">
-        <v>0.1071428572000001</v>
+        <v>0.1339285715</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1071428571999999</v>
+        <v>0.1339285715</v>
       </c>
       <c r="H140" t="n">
-        <v>0.1071428571999999</v>
+        <v>0.1339285714999998</v>
       </c>
       <c r="I140" t="n">
-        <v>0.107142857</v>
+        <v>0.01785714275000017</v>
       </c>
       <c r="J140" t="n">
-        <v>0.1071428572000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.08333333334</v>
+        <v>0.104166666675</v>
       </c>
       <c r="B141" t="n">
-        <v>0.08333333332000002</v>
+        <v>0.10416666665</v>
       </c>
       <c r="C141" t="n">
-        <v>0.08333333333999998</v>
+        <v>0.104166666675</v>
       </c>
       <c r="D141" t="n">
-        <v>0.1071428572</v>
+        <v>0.1339285715</v>
       </c>
       <c r="E141" t="n">
-        <v>0.107142857</v>
+        <v>0.13392857125</v>
       </c>
       <c r="F141" t="n">
-        <v>0.1071428572000001</v>
+        <v>0.1339285715</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1071428571999999</v>
+        <v>0.1339285715</v>
       </c>
       <c r="H141" t="n">
-        <v>0.1071428571999999</v>
+        <v>0.1339285714999998</v>
       </c>
       <c r="I141" t="n">
-        <v>0.107142857</v>
+        <v>0.01785714275000017</v>
       </c>
       <c r="J141" t="n">
-        <v>0.1071428572000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -5032,98 +4772,98 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333334</v>
       </c>
       <c r="B144" t="n">
-        <v>0.10416666665</v>
+        <v>0.08333333332000002</v>
       </c>
       <c r="C144" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333333999998</v>
       </c>
       <c r="D144" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572</v>
       </c>
       <c r="E144" t="n">
-        <v>0.13392857125</v>
+        <v>0.107142857</v>
       </c>
       <c r="F144" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572000001</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="H144" t="n">
-        <v>0.1339285714999998</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="I144" t="n">
-        <v>0.01785714275000017</v>
+        <v>0.107142857</v>
       </c>
       <c r="J144" t="n">
-        <v>0</v>
+        <v>0.1071428572000001</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333334</v>
       </c>
       <c r="B145" t="n">
-        <v>0.10416666665</v>
+        <v>0.08333333332000002</v>
       </c>
       <c r="C145" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333333999998</v>
       </c>
       <c r="D145" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572</v>
       </c>
       <c r="E145" t="n">
-        <v>0.13392857125</v>
+        <v>0.107142857</v>
       </c>
       <c r="F145" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572000001</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="H145" t="n">
-        <v>0.1339285714999998</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="I145" t="n">
-        <v>0.01785714275000017</v>
+        <v>0.107142857</v>
       </c>
       <c r="J145" t="n">
-        <v>0</v>
+        <v>0.1071428572000001</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333334</v>
       </c>
       <c r="B146" t="n">
-        <v>0.10416666665</v>
+        <v>0.08333333332000002</v>
       </c>
       <c r="C146" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333333999998</v>
       </c>
       <c r="D146" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572</v>
       </c>
       <c r="E146" t="n">
-        <v>0.13392857125</v>
+        <v>0.107142857</v>
       </c>
       <c r="F146" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572000001</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="H146" t="n">
-        <v>0.1339285714999998</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="I146" t="n">
-        <v>0.01785714275000017</v>
+        <v>0.107142857</v>
       </c>
       <c r="J146" t="n">
-        <v>0</v>
+        <v>0.1071428572000001</v>
       </c>
     </row>
     <row r="147">
@@ -5224,34 +4964,34 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333334</v>
       </c>
       <c r="B150" t="n">
-        <v>0.10416666665</v>
+        <v>0.08333333332000002</v>
       </c>
       <c r="C150" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333333999998</v>
       </c>
       <c r="D150" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572</v>
       </c>
       <c r="E150" t="n">
-        <v>0.13392857125</v>
+        <v>0.107142857</v>
       </c>
       <c r="F150" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572000001</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="H150" t="n">
-        <v>0.1339285714999998</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="I150" t="n">
-        <v>0.01785714275000017</v>
+        <v>0.107142857</v>
       </c>
       <c r="J150" t="n">
-        <v>0</v>
+        <v>0.1071428572000001</v>
       </c>
     </row>
     <row r="151">
@@ -5416,66 +5156,66 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333334</v>
       </c>
       <c r="B156" t="n">
-        <v>0.10416666665</v>
+        <v>0.08333333332000002</v>
       </c>
       <c r="C156" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333333999998</v>
       </c>
       <c r="D156" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572</v>
       </c>
       <c r="E156" t="n">
-        <v>0.13392857125</v>
+        <v>0.107142857</v>
       </c>
       <c r="F156" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572000001</v>
       </c>
       <c r="G156" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="H156" t="n">
-        <v>0.1339285714999998</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="I156" t="n">
-        <v>0.01785714275000017</v>
+        <v>0.107142857</v>
       </c>
       <c r="J156" t="n">
-        <v>0</v>
+        <v>0.1071428572000001</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333334</v>
       </c>
       <c r="B157" t="n">
-        <v>0.10416666665</v>
+        <v>0.08333333332000002</v>
       </c>
       <c r="C157" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333333999998</v>
       </c>
       <c r="D157" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572</v>
       </c>
       <c r="E157" t="n">
-        <v>0.13392857125</v>
+        <v>0.107142857</v>
       </c>
       <c r="F157" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572000001</v>
       </c>
       <c r="G157" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="H157" t="n">
-        <v>0.1339285714999998</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="I157" t="n">
-        <v>0.01785714275000017</v>
+        <v>0.107142857</v>
       </c>
       <c r="J157" t="n">
-        <v>0</v>
+        <v>0.1071428572000001</v>
       </c>
     </row>
     <row r="158">
@@ -5608,34 +5348,34 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333334</v>
       </c>
       <c r="B162" t="n">
-        <v>0.10416666665</v>
+        <v>0.08333333332000002</v>
       </c>
       <c r="C162" t="n">
-        <v>0.104166666675</v>
+        <v>0.08333333333999998</v>
       </c>
       <c r="D162" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572</v>
       </c>
       <c r="E162" t="n">
-        <v>0.13392857125</v>
+        <v>0.107142857</v>
       </c>
       <c r="F162" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428572000001</v>
       </c>
       <c r="G162" t="n">
-        <v>0.1339285715</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="H162" t="n">
-        <v>0.1339285714999998</v>
+        <v>0.1071428571999999</v>
       </c>
       <c r="I162" t="n">
-        <v>0.01785714275000017</v>
+        <v>0.107142857</v>
       </c>
       <c r="J162" t="n">
-        <v>0</v>
+        <v>0.1071428572000001</v>
       </c>
     </row>
     <row r="163">
@@ -5732,6 +5472,422 @@
       </c>
       <c r="J165" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>0.08333333334</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.08333333332000002</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.08333333333999998</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.1071428572</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.107142857</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.1071428572000001</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0.1071428571999999</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0.1071428571999999</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0.107142857</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.1071428572000001</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0.08333333334</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.08333333332000002</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.08333333333999998</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.1071428572</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.107142857</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.1071428572000001</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0.1071428571999999</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0.1071428571999999</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0.107142857</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.1071428572000001</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>0.08333333334</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.08333333332000002</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.08333333333999998</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.1071428572</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.107142857</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.1071428572000001</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0.1071428571999999</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0.1071428571999999</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0.107142857</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.1071428572000001</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0.104166666675</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.10416666665</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0.104166666675</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.1339285715</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.13392857125</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.1339285715</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0.1339285715</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0.1339285714999998</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0.01785714275000017</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0.104166666675</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.10416666665</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.104166666675</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.1339285715</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.13392857125</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.1339285715</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0.1339285715</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0.1339285714999998</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0.01785714275000017</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0.104166666675</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.10416666665</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0.104166666675</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.1339285715</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0.13392857125</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.1339285715</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0.1339285715</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0.1339285714999998</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0.01785714275000017</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>0.104166666675</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.10416666665</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0.104166666675</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.1339285715</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.13392857125</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.1339285715</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0.1339285715</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0.1339285714999998</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0.01785714275000017</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0.104166666675</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.10416666665</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0.104166666675</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.1339285715</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0.13392857125</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0.1339285715</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0.1339285715</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0.1339285714999998</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0.01785714275000017</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0.08333333334</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.08333333332000002</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0.08333333333999998</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.1071428572</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0.107142857</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0.1071428572000001</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0.1071428571999999</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0.1071428571999999</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0.107142857</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0.1071428572000001</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>0.104166666675</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.10416666665</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0.104166666675</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.1339285715</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0.13392857125</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.1339285715</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0.1339285715</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0.1339285714999998</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0.01785714275000017</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>0.104166666675</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.10416666665</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0.104166666675</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.1339285715</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0.13392857125</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0.1339285715</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0.1339285715</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0.1339285714999998</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0.01785714275000017</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>0.104166666675</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.10416666665</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0.104166666675</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.1339285715</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0.13392857125</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0.1339285715</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0.1339285715</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0.1339285714999998</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0.01785714275000017</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>0.08333333334</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.08333333332000002</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0.08333333333999998</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.1071428572</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0.107142857</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.1071428572000001</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0.1071428571999999</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0.1071428571999999</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0.107142857</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.1071428572000001</v>
       </c>
     </row>
   </sheetData>
